--- a/data/2/20230603-a1r-nc-session2-l_transcript.xlsx
+++ b/data/2/20230603-a1r-nc-session2-l_transcript.xlsx
@@ -1,408 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 2/EXCEL 06:03 session 2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEC91D5-0760-0A4C-91C4-02D55B9CF1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230603-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="118">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"17:46"</t>
-  </si>
-  <si>
-    <t>Welcome back.</t>
-  </si>
-  <si>
-    <t>"18:01"</t>
-  </si>
-  <si>
-    <t>Is anybody else having trouble with the YouTube video?</t>
-  </si>
-  <si>
-    <t>"18:06"</t>
-  </si>
-  <si>
-    <t>Yes, I talked to the customer service, they said everybody, literally everyone was having the same problem as a black screen. In fact, I couldn't participate in the zoom. All of the buttons that know the buttons worked.</t>
-  </si>
-  <si>
-    <t>"18:24"</t>
-  </si>
-  <si>
-    <t>All right, so we're we supposed to be talking about the convention was that that's the first topic, correct?</t>
-  </si>
-  <si>
-    <t>"18:32"</t>
-  </si>
-  <si>
-    <t>Yeah, I think so.</t>
-  </si>
-  <si>
-    <t>"18:43"</t>
-  </si>
-  <si>
-    <t>Yeah, I think regarding this first topic to the extent that parties are a necessary part of our Democratic process than I think they should reflect those Democratic, or those values that are implicit in a democracy. And it's not have the super delegates within their conventions.</t>
-  </si>
-  <si>
-    <t>"19:08"</t>
-  </si>
-  <si>
-    <t>So I agree with that. I don't necessarily feel like if we were to move towards like a super delegate system, like I don't feel comfortable putting too much power to putting too much power with those super-delegates prefer. If you know, things say has democracy and we empower the people rather than the super delegates.</t>
-  </si>
-  <si>
-    <t>"19:30"</t>
-  </si>
-  <si>
-    <t>Yeah I mean I don't really see the point of doing a you know state by state primaries and caucuses if the national party convention can just overturn everything. So I feel like this is done, we have now is probably the best I wouldn't I wouldn't support going to more control to the party leaders.</t>
-  </si>
-  <si>
-    <t>"20:06"</t>
-  </si>
-  <si>
-    <t>Table 12 volt, no one could be excused from voting.</t>
-  </si>
-  <si>
-    <t>"21:29"</t>
-  </si>
-  <si>
-    <t>I keep reading the information here but it seems so limited. I can't really make a final decision based on very limited details about what we really want to change here.</t>
-  </si>
-  <si>
-    <t>"21:45"</t>
-  </si>
-  <si>
-    <t>I feel like this is just something that has become a popular issue because of the last couple elections, where the electoral college did overturn, the popular vote, and I feel like it's just like the popular talking point right now. I don't know that it's something that really needs to be given as much attention as it is right now.</t>
-  </si>
-  <si>
-    <t>"22:09"</t>
-  </si>
-  <si>
-    <t>I think they should change it. I don't like it. It's not fair. I just think they should change it. I don't know how or what? But I don't like it.</t>
-  </si>
-  <si>
-    <t>"22:25"</t>
-  </si>
-  <si>
-    <t>Well, I do kind of agree with that sentiment. The Electoral College is a popular talking point at this point to this point but I think that it's that way for a good reason I don't necessarily like the how the system is right now. I don't like the idea of the popular vote not really mattering and the end because if if the Electoral College is there like what point is there to counting all the popular votes, right?</t>
-  </si>
-  <si>
-    <t>"22:53"</t>
-  </si>
-  <si>
-    <t>"23:13"</t>
-  </si>
-  <si>
-    <t>Reina, we can't hear you. Something's wrong.</t>
-  </si>
-  <si>
-    <t>"23:19"</t>
-  </si>
-  <si>
-    <t>"23:30"</t>
-  </si>
-  <si>
-    <t>Yeah, we still can't hear you.</t>
-  </si>
-  <si>
-    <t>"24:51"</t>
-  </si>
-  <si>
-    <t>This seems to me like a roundabout way of abolishing the Electoral College without actually abolishing it. I feel like if we're going to do this it's just a legal work around and it's more legislation than we need. We should just abolish the Electoral College and be done with it.</t>
-  </si>
-  <si>
-    <t>"25:10"</t>
-  </si>
-  <si>
-    <t>I do think that's exactly what this is to your point. That said it does not seem like a great idea, especially to the extent that it has a compact. And there's no way to hold other states accountable as part of it. And so there's nothing to say you join the Compact and then reverse your decision at the state level at a later date. And also just seems</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> you seems very dangerous. I think to do this based on state legislatures, instead of the way Electoral College it should be amended which is through Constitutional Amendment or other legislation at a federal level.</t>
-  </si>
-  <si>
-    <t>"25:57"</t>
-  </si>
-  <si>
-    <t>I agree.</t>
-  </si>
-  <si>
-    <t>"25:59"</t>
-  </si>
-  <si>
-    <t>Well, one thing is Apparently one of the cons listed here is to compact is incompatible with bring Choice voting, which we all seem to like in the last session. I'm just wondering. I don't exactly know how it's incompatible. Does anyone have any thoughts about that?</t>
-  </si>
-  <si>
-    <t>"26:21"</t>
-  </si>
-  <si>
-    <t>I agree. I noticed that and I don't know why it would be incompatible but I definitely would prefer to have ranked Choice voting over this Compact. And I also want to say to agree with Collins point that it's really dangerous to have this kind of a compact where the control really isn't in the voters hands anymore.</t>
-  </si>
-  <si>
-    <t>"26:46"</t>
-  </si>
-  <si>
-    <t>I get it boils down to the fact, there's not enough information here to really come up with a conclusive ending because what I'm reading your it's not enough, it's not enough information.</t>
-  </si>
-  <si>
-    <t>"27:05"</t>
-  </si>
-  <si>
-    <t>Well, I think maybe if I dig a little deeper into this, I think it's incompatible in that the sense that ranked Choice voting is not necessarily, the result is the winner of rank Choice. Voting is not necessarily the result of the popular vote. The one who's the most popular in the vote. So like, when</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> you know, I forget it.</t>
-  </si>
-  <si>
-    <t>"28:40"</t>
-  </si>
-  <si>
-    <t>Well, at the very least, I don't like how it's a lifetime appointment with think there should be some term limits in place.</t>
-  </si>
-  <si>
-    <t>"28:50"</t>
-  </si>
-  <si>
-    <t>Yeah, I definitely like the proposal of term limits and I think that the idea of Staggering them every two years is really nice to make it as Equitable as possible. And I feel like that last proposal the requiring, the Supreme Court to comply with the same. Ethical standards is kind of a no-brainer. I had never realized that they didn't have to comply with that.</t>
-  </si>
-  <si>
-    <t>"29:15"</t>
-  </si>
-  <si>
-    <t>Ali. I agree. You also get it.</t>
-  </si>
-  <si>
-    <t>"29:36"</t>
-  </si>
-  <si>
-    <t>Yeah, I just saying I agree as well.</t>
-  </si>
-  <si>
-    <t>"29:43"</t>
-  </si>
-  <si>
-    <t>I also agree, and I just want to know that, you know, these three proposals. I don't think are mutually exclusive. I don't, I would disagree with an amendment necessarily cap the size of the Supreme Court. And I think with, on legislation for an 18-year term such that, every president gets two nominations, it would necessarily fluctuate because within that, I don't believe there's a mechanism for replacement upon resignation or death of a</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A Justice if that were to occur during a term. And also, I think it's completely absurd that they don't have to cry or meet a federal ethical standards as every other federal judge does.</t>
-  </si>
-  <si>
-    <t>"30:28"</t>
-  </si>
-  <si>
-    <t>I agree with the God. Don't mind me. I agree that I think it should be a two or four-year term. 18 years is too much and also I agree with they should have to comply just like every other judge</t>
-  </si>
-  <si>
-    <t>"31:55"</t>
-  </si>
-  <si>
-    <t>It starts off what I said earlier about education. It's number one. If we're going to do this, people have to be educated. And I keep seeing the con on here that it's, we're behind in science, and technology. Well, we can't run a country with science and technology. We do need it, but we can't run the country. That way, the country has to be run where everyone knows we're doing. We know who we're electing, who were not electing. This is I look at this and I'm kind of a little bit of</t>
-  </si>
-  <si>
-    <t>"32:23"</t>
-  </si>
-  <si>
-    <t>I definitely agree with what you're saying, Mike and I get outraged to as a 21-year educator. I've seen how it is definitely you know, extreme since I started my career in education that we can't seem to commit to doing more than one thing that baffles me which is totally not true. You don't have to. I'm like the concept.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> All available dollars and hours in school should be devoted to to specific Fields. No we have to cover it all. We have to make sure that young people become adults who are well-educated on our Civic matters to run our</t>
-  </si>
-  <si>
-    <t>"33:09"</t>
-  </si>
-  <si>
-    <t>Yeah, I totally agree. Dory. I think the notion that the spending on science and technology is somehow mutually exclusive, and you became also teach Civics. And other thing I think that is dangerous, is it creates a not spend the money to educate on Civics creates a, basically a knowledge class system, of people who know how it works and people who does it. Such that the people who know how the</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> some Works can take advantage of manipulate the system at the expense of those who does it, who don't understand how it works. And so I think it's hugely important to promote civic education at all levels.</t>
-  </si>
-  <si>
-    <t>"33:52"</t>
-  </si>
-  <si>
-    <t>To be honest, I did not vote from my 18th to my 30th. Birthday did not vote because I knew nothing about how this voting system works. It was only because it was never taught. No one explained anything. It's just like, okay, you're just just take the piece of paper and start writing some names instead of circling the candidates but there was no education on it. None whatsoever.</t>
-  </si>
-  <si>
-    <t>"34:18"</t>
-  </si>
-  <si>
-    <t>Yeah, I definitely agree that there needs to be more education regarding civic education in this country. It's because the stem major myself, I know I handful of friends who don't really take politics too seriously, and I think that's a real shame. And I think there's a lot of misconceptions about the taller whole building system in general, like my sister, she actually doesn't vote because she thinks that like, if she votes and she's</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Going to get put on the list to go on jury duty and she doesn't want to do that.</t>
-  </si>
-  <si>
-    <t>"34:52"</t>
-  </si>
-  <si>
-    <t>I also want to backup the the equity thing because like I was super Lucky in high school to have a Civics teacher who actually science like on our birth, our 18th birthdays, helped us, go sign up and register to vote and talk to us through that. And you know, I was really privileged with that, but I know a lot of people that that weren't and clear like, Mike, you didn't have the privilege of having that. So I think an increase in funding will help address that and then the</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Second part of this about promoting deliberation of diverse views. I think that will naturally follow once. People are more educated and just feel more comfortable speaking about it.</t>
-  </si>
-  <si>
-    <t>"35:32"</t>
-  </si>
-  <si>
-    <t>I also think there needs to be a bit more done in order to educate the people who are already out of school right now because I feel like</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Maybe I'm too pessimistic, but I feel like the journal American populace, doesn't really have a great background civic education General.</t>
-  </si>
-  <si>
-    <t>"35:48"</t>
-  </si>
-  <si>
-    <t>And I think a corollary to all this is that when we're talking about those nine political or non civic education areas, like science, and technology, and math and Engineering. More of those people need to be represented in Congress as well to not just have career politicians, and I think so many people, you look at it, you have to go through the public policy schools. You have to become super active. In the local party system, just to have a chance to get.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> There to where you are just a career politician and I don't think it should be something that has like you should be able to approach it from from different walks of life.</t>
-  </si>
-  <si>
-    <t>"36:28"</t>
-  </si>
-  <si>
-    <t>Yes, I agree with that. Like being a career politician attracts a very particular kind of person, and those particular type of people may not necessarily be the best people representing us</t>
-  </si>
-  <si>
-    <t>"36:43"</t>
-  </si>
-  <si>
-    <t>Strongly agree.</t>
-  </si>
-  <si>
-    <t>"36:47"</t>
-  </si>
-  <si>
-    <t>I agree with Dennis will.</t>
-  </si>
-  <si>
-    <t>"38:24"</t>
-  </si>
-  <si>
-    <t>"42:58"</t>
-  </si>
-  <si>
-    <t>Mike, I just wanted to quickly ask what you sort of mean by independent. Would it be like not nominated by a president or or just like independent, as like political party independent.</t>
-  </si>
-  <si>
-    <t>"43:11"</t>
-  </si>
-  <si>
-    <t>Both political party independent. And other words, not Democratic not Republican this way. They can sway the loss. They are they are bipartisan or biased about their opinions and it's not, it isn't the political situation upon I was elected because this president wants this particular agenda versus</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> those that have want specific things done in the laws that having three more people can you can sway that vote and they'll actually probably look at the law and interpret the law as it is.</t>
-  </si>
-  <si>
-    <t>"43:49"</t>
-  </si>
-  <si>
-    <t>So how do you propose those independent judges or selected? Because if a president, if it's like, president has to nominate nominate them? Like, why would they want to nominate an independent rather than like someone from their own party? Well, I guess that's why you said it was three spots. That would be independent.</t>
-  </si>
-  <si>
-    <t>"44:06"</t>
-  </si>
-  <si>
-    <t>I think it's two quick things is Ted, I think technically all of our current Supreme Court, Justices are supposedly independent clearly they aren't actually independent, but that is the theory behind a lifetime appointment. And then I think maybe some of the to consider is I think one of the reasons they stick that do nine or an odd numbers to make sure that you can't end up with the Hun Court of 6, verse 6,</t>
-  </si>
-  <si>
-    <t>So, I don't know if there be any room to like a 13 with four independent or something like that, but I could see 12 you can end up with a lot locked Court.</t>
-  </si>
-  <si>
-    <t>"44:47"</t>
-  </si>
-  <si>
-    <t>I'm just basing it on the last elections. One of the judges has had it political point of view, and they were given the position because they agreed with the party, rather than what the laws actually interpreted. And that to me is, I didn't like that. It bothered me, then you will always judge the laws based on your political point of view, rather than what the Constitution.</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -478,44 +113,44 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -584,14 +219,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1666,793 +1293,954 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS63"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="1" ht="20.25" customHeight="1" s="9">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="9">
+      <c r="A2" s="4" t="n">
         <v>48348</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>"17:46"</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>Welcome back.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="9">
+      <c r="A3" s="4" t="n">
         <v>48413</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>"18:01"</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Is anybody else having trouble with the YouTube video?</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="9">
+      <c r="A4" s="4" t="n">
         <v>48348</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>"18:06"</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Yes, I talked to the customer service, they said everybody, literally everyone was having the same problem as a black screen. In fact, I couldn't participate in the zoom. All of the buttons that know the buttons worked.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="9">
+      <c r="A5" s="4" t="n">
         <v>48413</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>"18:24"</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>All right, so we're we supposed to be talking about the convention was that that's the first topic, correct?</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="9">
+      <c r="A6" s="4" t="n">
         <v>48511</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>"18:32"</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I think so.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="9">
+      <c r="A7" s="4" t="n">
         <v>48295</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>"18:43"</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I think regarding this first topic to the extent that parties are a necessary part of our Democratic process than I think they should reflect those Democratic, or those values that are implicit in a democracy. And it's not have the super delegates within their conventions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="9">
+      <c r="A8" s="4" t="n">
         <v>48511</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>"19:08"</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>So I agree with that. I don't necessarily feel like if we were to move towards like a super delegate system, like I don't feel comfortable putting too much power to putting too much power with those super-delegates prefer. If you know, things say has democracy and we empower the people rather than the super delegates.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="9">
+      <c r="A9" s="4" t="n">
         <v>48413</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>"19:30"</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Yeah I mean I don't really see the point of doing a you know state by state primaries and caucuses if the national party convention can just overturn everything. So I feel like this is done, we have now is probably the best I wouldn't I wouldn't support going to more control to the party leaders.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="9">
+      <c r="A10" s="4" t="n">
         <v>48481</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>"20:06"</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Table 12 volt, no one could be excused from voting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="9">
+      <c r="A11" s="4" t="n">
         <v>48348</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>"21:29"</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>I keep reading the information here but it seems so limited. I can't really make a final decision based on very limited details about what we really want to change here.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="9">
+      <c r="A12" s="4" t="n">
         <v>48413</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>"21:45"</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>I feel like this is just something that has become a popular issue because of the last couple elections, where the electoral college did overturn, the popular vote, and I feel like it's just like the popular talking point right now. I don't know that it's something that really needs to be given as much attention as it is right now.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="9">
+      <c r="A13" s="4" t="n">
         <v>48396</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>"22:09"</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>I think they should change it. I don't like it. It's not fair. I just think they should change it. I don't know how or what? But I don't like it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="9">
+      <c r="A14" s="4" t="n">
         <v>48511</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>"22:25"</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Well, I do kind of agree with that sentiment. The Electoral College is a popular talking point at this point to this point but I think that it's that way for a good reason I don't necessarily like the how the system is right now. I don't like the idea of the popular vote not really mattering and the end because if if the Electoral College is there like what point is there to counting all the popular votes, right?</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="9">
+      <c r="A15" s="4" t="n">
         <v>48443</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>"22:53"</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="9">
+      <c r="A16" s="4" t="n">
         <v>48443</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>"22:53"</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="n"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="9">
+      <c r="A17" s="4" t="n">
         <v>48348</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>"23:13"</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>Reina, we can't hear you. Something's wrong.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="9">
+      <c r="A18" s="4" t="n">
         <v>48443</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>"23:19"</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="n"/>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="9">
+      <c r="A19" s="4" t="n">
         <v>48443</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>"23:19"</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="9">
+      <c r="A20" s="4" t="n">
         <v>48511</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>"23:30"</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, we still can't hear you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="9">
+      <c r="A21" s="4" t="n">
         <v>48413</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>"24:51"</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>This seems to me like a roundabout way of abolishing the Electoral College without actually abolishing it. I feel like if we're going to do this it's just a legal work around and it's more legislation than we need. We should just abolish the Electoral College and be done with it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="9">
+      <c r="A22" s="4" t="n">
         <v>48295</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>"25:10"</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>I do think that's exactly what this is to your point. That said it does not seem like a great idea, especially to the extent that it has a compact. And there's no way to hold other states accountable as part of it. And so there's nothing to say you join the Compact and then reverse your decision at the state level at a later date. And also just seems</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="9">
+      <c r="A23" s="4" t="n">
         <v>48295</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>"25:10"</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> you seems very dangerous. I think to do this based on state legislatures, instead of the way Electoral College it should be amended which is through Constitutional Amendment or other legislation at a federal level.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="9">
+      <c r="A24" s="4" t="n">
         <v>48348</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>"25:57"</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>I agree.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="9">
+      <c r="A25" s="4" t="n">
         <v>48511</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>"25:59"</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>Well, one thing is Apparently one of the cons listed here is to compact is incompatible with bring Choice voting, which we all seem to like in the last session. I'm just wondering. I don't exactly know how it's incompatible. Does anyone have any thoughts about that?</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="9">
+      <c r="A26" s="4" t="n">
         <v>48413</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>"26:21"</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>I agree. I noticed that and I don't know why it would be incompatible but I definitely would prefer to have ranked Choice voting over this Compact. And I also want to say to agree with Collins point that it's really dangerous to have this kind of a compact where the control really isn't in the voters hands anymore.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="9">
+      <c r="A27" s="4" t="n">
         <v>48348</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>"26:46"</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>I get it boils down to the fact, there's not enough information here to really come up with a conclusive ending because what I'm reading your it's not enough, it's not enough information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="9">
+      <c r="A28" s="4" t="n">
         <v>48511</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>"27:05"</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>Well, I think maybe if I dig a little deeper into this, I think it's incompatible in that the sense that ranked Choice voting is not necessarily, the result is the winner of rank Choice. Voting is not necessarily the result of the popular vote. The one who's the most popular in the vote. So like, when</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="9">
+      <c r="A29" s="4" t="n">
         <v>48511</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>"27:05"</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> you know, I forget it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="9">
+      <c r="A30" s="4" t="n">
         <v>48511</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>"28:40"</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>Well, at the very least, I don't like how it's a lifetime appointment with think there should be some term limits in place.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="9">
+      <c r="A31" s="4" t="n">
         <v>48413</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>"28:50"</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I definitely like the proposal of term limits and I think that the idea of Staggering them every two years is really nice to make it as Equitable as possible. And I feel like that last proposal the requiring, the Supreme Court to comply with the same. Ethical standards is kind of a no-brainer. I had never realized that they didn't have to comply with that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="9">
+      <c r="A32" s="4" t="n">
         <v>48481</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>"29:15"</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>Ali. I agree. You also get it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="9">
+      <c r="A33" s="4" t="n">
         <v>10416</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>"29:36"</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I just saying I agree as well.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="9">
+      <c r="A34" s="4" t="n">
         <v>48295</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>"29:43"</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>I also agree, and I just want to know that, you know, these three proposals. I don't think are mutually exclusive. I don't, I would disagree with an amendment necessarily cap the size of the Supreme Court. And I think with, on legislation for an 18-year term such that, every president gets two nominations, it would necessarily fluctuate because within that, I don't believe there's a mechanism for replacement upon resignation or death of a</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="9">
+      <c r="A35" s="4" t="n">
         <v>48295</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>"29:43"</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A Justice if that were to occur during a term. And also, I think it's completely absurd that they don't have to cry or meet a federal ethical standards as every other federal judge does.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="9">
+      <c r="A36" s="4" t="n">
         <v>48396</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>"30:28"</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>I agree with the God. Don't mind me. I agree that I think it should be a two or four-year term. 18 years is too much and also I agree with they should have to comply just like every other judge</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="9">
+      <c r="A37" s="4" t="n">
         <v>48396</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>"30:28"</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n"/>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="9">
+      <c r="A38" s="4" t="n">
         <v>48348</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>"31:55"</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>It starts off what I said earlier about education. It's number one. If we're going to do this, people have to be educated. And I keep seeing the con on here that it's, we're behind in science, and technology. Well, we can't run a country with science and technology. We do need it, but we can't run the country. That way, the country has to be run where everyone knows we're doing. We know who we're electing, who were not electing. This is I look at this and I'm kind of a little bit of</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="9">
+      <c r="A39" s="4" t="n">
         <v>9912</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>"32:23"</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>I definitely agree with what you're saying, Mike and I get outraged to as a 21-year educator. I've seen how it is definitely you know, extreme since I started my career in education that we can't seem to commit to doing more than one thing that baffles me which is totally not true. You don't have to. I'm like the concept.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="9">
+      <c r="A40" s="4" t="n">
         <v>9912</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4">
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>"32:23"</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> All available dollars and hours in school should be devoted to to specific Fields. No we have to cover it all. We have to make sure that young people become adults who are well-educated on our Civic matters to run our</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="9">
+      <c r="A41" s="4" t="n">
         <v>48295</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4">
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>"33:09"</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I totally agree. Dory. I think the notion that the spending on science and technology is somehow mutually exclusive, and you became also teach Civics. And other thing I think that is dangerous, is it creates a not spend the money to educate on Civics creates a, basically a knowledge class system, of people who know how it works and people who does it. Such that the people who know how the</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="9">
+      <c r="A42" s="4" t="n">
         <v>48295</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4">
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>"33:09"</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> some Works can take advantage of manipulate the system at the expense of those who does it, who don't understand how it works. And so I think it's hugely important to promote civic education at all levels.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="9">
+      <c r="A43" s="4" t="n">
         <v>48348</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>"33:52"</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>To be honest, I did not vote from my 18th to my 30th. Birthday did not vote because I knew nothing about how this voting system works. It was only because it was never taught. No one explained anything. It's just like, okay, you're just just take the piece of paper and start writing some names instead of circling the candidates but there was no education on it. None whatsoever.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="9">
+      <c r="A44" s="4" t="n">
         <v>48511</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>"34:18"</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I definitely agree that there needs to be more education regarding civic education in this country. It's because the stem major myself, I know I handful of friends who don't really take politics too seriously, and I think that's a real shame. And I think there's a lot of misconceptions about the taller whole building system in general, like my sister, she actually doesn't vote because she thinks that like, if she votes and she's</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="9">
+      <c r="A45" s="4" t="n">
         <v>48511</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4">
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>"34:18"</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Going to get put on the list to go on jury duty and she doesn't want to do that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="9">
+      <c r="A46" s="4" t="n">
         <v>48413</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>"34:52"</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>I also want to backup the the equity thing because like I was super Lucky in high school to have a Civics teacher who actually science like on our birth, our 18th birthdays, helped us, go sign up and register to vote and talk to us through that. And you know, I was really privileged with that, but I know a lot of people that that weren't and clear like, Mike, you didn't have the privilege of having that. So I think an increase in funding will help address that and then the</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="9">
+      <c r="A47" s="4" t="n">
         <v>48413</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>"34:52"</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Second part of this about promoting deliberation of diverse views. I think that will naturally follow once. People are more educated and just feel more comfortable speaking about it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="9">
+      <c r="A48" s="4" t="n">
         <v>48511</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>"35:32"</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>I also think there needs to be a bit more done in order to educate the people who are already out of school right now because I feel like</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="9">
+      <c r="A49" s="4" t="n">
         <v>48511</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4">
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>"35:32"</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maybe I'm too pessimistic, but I feel like the journal American populace, doesn't really have a great background civic education General.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="9">
+      <c r="A50" s="4" t="n">
         <v>48295</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="4">
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>"35:48"</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>And I think a corollary to all this is that when we're talking about those nine political or non civic education areas, like science, and technology, and math and Engineering. More of those people need to be represented in Congress as well to not just have career politicians, and I think so many people, you look at it, you have to go through the public policy schools. You have to become super active. In the local party system, just to have a chance to get.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="9">
+      <c r="A51" s="4" t="n">
         <v>48295</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4">
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>"35:48"</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> There to where you are just a career politician and I don't think it should be something that has like you should be able to approach it from from different walks of life.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="9">
+      <c r="A52" s="4" t="n">
         <v>48511</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4">
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>"36:28"</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>Yes, I agree with that. Like being a career politician attracts a very particular kind of person, and those particular type of people may not necessarily be the best people representing us</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="9">
+      <c r="A53" s="4" t="n">
         <v>48348</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4">
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>"36:43"</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>Strongly agree.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="9">
+      <c r="A54" s="4" t="n">
         <v>48481</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4">
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>"36:47"</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>I agree with Dennis will.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="9">
+      <c r="A55" s="4" t="n">
         <v>48443</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4">
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>"38:24"</t>
+        </is>
+      </c>
+      <c r="C55" s="6" t="n"/>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="9">
+      <c r="A56" s="4" t="n">
         <v>48413</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4">
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>"42:58"</t>
+        </is>
+      </c>
+      <c r="C56" s="6" t="n"/>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="9">
+      <c r="A57" s="4" t="n">
         <v>48413</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4">
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>"42:58"</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>Mike, I just wanted to quickly ask what you sort of mean by independent. Would it be like not nominated by a president or or just like independent, as like political party independent.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="9">
+      <c r="A58" s="4" t="n">
         <v>48348</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="4">
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>"43:11"</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>Both political party independent. And other words, not Democratic not Republican this way. They can sway the loss. They are they are bipartisan or biased about their opinions and it's not, it isn't the political situation upon I was elected because this president wants this particular agenda versus</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1" s="9">
+      <c r="A59" s="4" t="n">
         <v>48348</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="4">
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>"43:11"</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> those that have want specific things done in the laws that having three more people can you can sway that vote and they'll actually probably look at the law and interpret the law as it is.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1" s="9">
+      <c r="A60" s="4" t="n">
         <v>48511</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4">
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>"43:49"</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>So how do you propose those independent judges or selected? Because if a president, if it's like, president has to nominate nominate them? Like, why would they want to nominate an independent rather than like someone from their own party? Well, I guess that's why you said it was three spots. That would be independent.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1" s="9">
+      <c r="A61" s="4" t="n">
         <v>48295</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4">
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>"44:06"</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>I think it's two quick things is Ted, I think technically all of our current Supreme Court, Justices are supposedly independent clearly they aren't actually independent, but that is the theory behind a lifetime appointment. And then I think maybe some of the to consider is I think one of the reasons they stick that do nine or an odd numbers to make sure that you can't end up with the Hun Court of 6, verse 6,</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1" s="9">
+      <c r="A62" s="4" t="n">
         <v>48295</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="4">
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>"44:06"</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>So, I don't know if there be any room to like a 13 with four independent or something like that, but I could see 12 you can end up with a lot locked Court.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" s="9">
+      <c r="A63" s="4" t="n">
         <v>48348</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>102</v>
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>"44:47"</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>I'm just basing it on the last elections. One of the judges has had it political point of view, and they were given the position because they agreed with the party, rather than what the laws actually interpreted. And that to me is, I didn't like that. It bothered me, then you will always judge the laws based on your political point of view, rather than what the Constitution.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AE1DC4-6A52-7B44-A582-D2DABDB1FFFB}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>